--- a/src/test/resources/test-data.xlsx
+++ b/src/test/resources/test-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>CASE_NAME</t>
   </si>
@@ -75,6 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,14 +453,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="44.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="73.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="44.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -533,13 +534,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="73.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">

--- a/src/test/resources/test-data.xlsx
+++ b/src/test/resources/test-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>CASE_NAME</t>
   </si>
